--- a/1Saldos - ecossistema.xlsx
+++ b/1Saldos - ecossistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALURA\Documents\Report de Saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D09EC22-F9D3-4D51-A45C-1100AE11B138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3AF50B-BB9E-428E-A1D3-72C8B4FE3A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EA03BAB-5D16-49FA-97CC-A81D8C595687}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3362" uniqueCount="17">
   <si>
     <t>Empresa</t>
   </si>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E222C4-9EE5-4085-8D2B-84513C2B1175}">
-  <dimension ref="A1:L1522"/>
+  <dimension ref="A1:L1691"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1486" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1521" sqref="C1521:H1522"/>
+      <pane ySplit="1" topLeftCell="A1642" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1647" sqref="F1647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40550,6 +40550,4101 @@
         <v>3632597.4</v>
       </c>
     </row>
+    <row r="1523" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1523" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1523" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1523">
+        <v>0</v>
+      </c>
+      <c r="E1523">
+        <v>0</v>
+      </c>
+      <c r="F1523">
+        <v>0</v>
+      </c>
+      <c r="G1523">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1523">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1524" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1524" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1524">
+        <v>25498.13</v>
+      </c>
+      <c r="E1524">
+        <v>992226.68</v>
+      </c>
+      <c r="F1524">
+        <v>-966728.55</v>
+      </c>
+      <c r="G1524">
+        <v>67811.87</v>
+      </c>
+      <c r="H1524">
+        <v>-898916.68</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1525" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1525" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1525">
+        <v>13003.7</v>
+      </c>
+      <c r="E1525">
+        <v>0</v>
+      </c>
+      <c r="F1525">
+        <v>13003.7</v>
+      </c>
+      <c r="G1525">
+        <v>0</v>
+      </c>
+      <c r="H1525">
+        <v>13003.7</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1526" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1526" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1526">
+        <v>0</v>
+      </c>
+      <c r="E1526">
+        <v>0</v>
+      </c>
+      <c r="F1526">
+        <v>0</v>
+      </c>
+      <c r="G1526">
+        <v>24868729.620000001</v>
+      </c>
+      <c r="H1526">
+        <v>24868729.620000001</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1527" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1527" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1527">
+        <v>0</v>
+      </c>
+      <c r="E1527">
+        <v>0</v>
+      </c>
+      <c r="F1527">
+        <v>0</v>
+      </c>
+      <c r="G1527">
+        <v>27176.69</v>
+      </c>
+      <c r="H1527">
+        <v>27176.69</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1528" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1528" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1528">
+        <v>0</v>
+      </c>
+      <c r="E1528">
+        <v>0</v>
+      </c>
+      <c r="F1528">
+        <v>0</v>
+      </c>
+      <c r="G1528">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1528">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1529" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1529" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1529">
+        <v>162947.64000000001</v>
+      </c>
+      <c r="E1529">
+        <v>672082.12</v>
+      </c>
+      <c r="F1529">
+        <v>-509134.48</v>
+      </c>
+      <c r="G1529">
+        <v>2976973.29</v>
+      </c>
+      <c r="H1529">
+        <v>2467838.81</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1530" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1530" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1530">
+        <v>0</v>
+      </c>
+      <c r="E1530">
+        <v>14095.97</v>
+      </c>
+      <c r="F1530">
+        <v>-14095.97</v>
+      </c>
+      <c r="G1530">
+        <v>50100.27</v>
+      </c>
+      <c r="H1530">
+        <v>36004.299999999996</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1531" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1531" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1531">
+        <v>0</v>
+      </c>
+      <c r="E1531">
+        <v>0</v>
+      </c>
+      <c r="F1531">
+        <v>0</v>
+      </c>
+      <c r="G1531">
+        <v>57610070.549999997</v>
+      </c>
+      <c r="H1531">
+        <v>57610070.549999997</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1532" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1532" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1532">
+        <v>0</v>
+      </c>
+      <c r="E1532">
+        <v>0</v>
+      </c>
+      <c r="F1532">
+        <v>0</v>
+      </c>
+      <c r="G1532">
+        <v>367835.82</v>
+      </c>
+      <c r="H1532">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1533" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1533" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1533">
+        <v>0</v>
+      </c>
+      <c r="E1533">
+        <v>0</v>
+      </c>
+      <c r="F1533">
+        <v>0</v>
+      </c>
+      <c r="G1533">
+        <v>1147442.8899999999</v>
+      </c>
+      <c r="H1533">
+        <v>1147442.8899999999</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1534" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1534" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1534">
+        <v>5011.5200000000004</v>
+      </c>
+      <c r="E1534">
+        <v>167298.4</v>
+      </c>
+      <c r="F1534">
+        <v>-162286.88</v>
+      </c>
+      <c r="G1534">
+        <v>16272.86</v>
+      </c>
+      <c r="H1534">
+        <v>-146014.02000000002</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1535" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1535" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1535">
+        <v>0</v>
+      </c>
+      <c r="E1535">
+        <v>0</v>
+      </c>
+      <c r="F1535">
+        <v>0</v>
+      </c>
+      <c r="G1535">
+        <v>3784488.36</v>
+      </c>
+      <c r="H1535">
+        <v>3784488.36</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1536" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1536" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1536">
+        <v>0</v>
+      </c>
+      <c r="E1536">
+        <v>0</v>
+      </c>
+      <c r="F1536">
+        <v>0</v>
+      </c>
+      <c r="G1536">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1536">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1537" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1537" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1537">
+        <v>47874.94</v>
+      </c>
+      <c r="E1537">
+        <v>0</v>
+      </c>
+      <c r="F1537">
+        <v>47874.94</v>
+      </c>
+      <c r="G1537">
+        <v>2944680.7</v>
+      </c>
+      <c r="H1537">
+        <v>2992555.64</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1538" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1538" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1538">
+        <v>354006.26</v>
+      </c>
+      <c r="E1538">
+        <v>0</v>
+      </c>
+      <c r="F1538">
+        <v>354006.26</v>
+      </c>
+      <c r="G1538">
+        <v>0</v>
+      </c>
+      <c r="H1538">
+        <v>354006.26</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1539" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1539" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1539">
+        <v>0</v>
+      </c>
+      <c r="E1539">
+        <v>0</v>
+      </c>
+      <c r="F1539">
+        <v>0</v>
+      </c>
+      <c r="G1539">
+        <v>20897438.010000002</v>
+      </c>
+      <c r="H1539">
+        <v>20897438.010000002</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1540" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1540" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1540">
+        <v>0</v>
+      </c>
+      <c r="E1540">
+        <v>0</v>
+      </c>
+      <c r="F1540">
+        <v>0</v>
+      </c>
+      <c r="G1540">
+        <v>130510.51</v>
+      </c>
+      <c r="H1540">
+        <v>130510.51</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1541" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1541" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1541">
+        <v>0</v>
+      </c>
+      <c r="E1541">
+        <v>0</v>
+      </c>
+      <c r="F1541">
+        <v>0</v>
+      </c>
+      <c r="G1541">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1541">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1542" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1542" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1542">
+        <v>122875.55</v>
+      </c>
+      <c r="E1542">
+        <v>7875.72</v>
+      </c>
+      <c r="F1542">
+        <v>114999.83</v>
+      </c>
+      <c r="G1542">
+        <v>1863828.55</v>
+      </c>
+      <c r="H1542">
+        <v>1978828.3800000001</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1543" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1543" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1543">
+        <v>0</v>
+      </c>
+      <c r="E1543">
+        <v>0</v>
+      </c>
+      <c r="F1543">
+        <v>0</v>
+      </c>
+      <c r="G1543">
+        <v>35904.300000000003</v>
+      </c>
+      <c r="H1543">
+        <v>35904.300000000003</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1544" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1544" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1544">
+        <v>0</v>
+      </c>
+      <c r="E1544">
+        <v>0</v>
+      </c>
+      <c r="F1544">
+        <v>0</v>
+      </c>
+      <c r="G1544">
+        <v>42763186.259999998</v>
+      </c>
+      <c r="H1544">
+        <v>42763186.259999998</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1545" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1545" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1545">
+        <v>0</v>
+      </c>
+      <c r="E1545">
+        <v>0</v>
+      </c>
+      <c r="F1545">
+        <v>0</v>
+      </c>
+      <c r="G1545">
+        <v>367835.82</v>
+      </c>
+      <c r="H1545">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1546" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1546" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1546">
+        <v>0</v>
+      </c>
+      <c r="E1546">
+        <v>0</v>
+      </c>
+      <c r="F1546">
+        <v>0</v>
+      </c>
+      <c r="G1546">
+        <v>1149327.1499999999</v>
+      </c>
+      <c r="H1546">
+        <v>1149327.1499999999</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1547" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1547" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1547">
+        <v>177461.99</v>
+      </c>
+      <c r="E1547">
+        <v>0</v>
+      </c>
+      <c r="F1547">
+        <v>177461.99</v>
+      </c>
+      <c r="G1547">
+        <v>11483.27</v>
+      </c>
+      <c r="H1547">
+        <v>188945.25999999998</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1548" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1548" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1548">
+        <v>0</v>
+      </c>
+      <c r="E1548">
+        <v>0</v>
+      </c>
+      <c r="F1548">
+        <v>0</v>
+      </c>
+      <c r="G1548">
+        <v>3673545.67</v>
+      </c>
+      <c r="H1548">
+        <v>3673545.67</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1549" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1549" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1549">
+        <v>0</v>
+      </c>
+      <c r="E1549">
+        <v>0</v>
+      </c>
+      <c r="F1549">
+        <v>0</v>
+      </c>
+      <c r="G1549">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1549">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1550" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1550" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1550">
+        <v>42248.51</v>
+      </c>
+      <c r="E1550">
+        <v>139.91</v>
+      </c>
+      <c r="F1550">
+        <v>42108.6</v>
+      </c>
+      <c r="G1550">
+        <v>817993.85</v>
+      </c>
+      <c r="H1550">
+        <v>860102.45</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1551" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1551" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1551">
+        <v>181747.29</v>
+      </c>
+      <c r="E1551">
+        <v>0</v>
+      </c>
+      <c r="F1551">
+        <v>181747.29</v>
+      </c>
+      <c r="G1551">
+        <v>0</v>
+      </c>
+      <c r="H1551">
+        <v>181747.29</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1552" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1552" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1552">
+        <v>0</v>
+      </c>
+      <c r="E1552">
+        <v>0</v>
+      </c>
+      <c r="F1552">
+        <v>0</v>
+      </c>
+      <c r="G1552">
+        <v>23273887.09</v>
+      </c>
+      <c r="H1552">
+        <v>23273887.09</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1553" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1553" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1553">
+        <v>0</v>
+      </c>
+      <c r="E1553">
+        <v>0</v>
+      </c>
+      <c r="F1553">
+        <v>0</v>
+      </c>
+      <c r="G1553">
+        <v>527639.41</v>
+      </c>
+      <c r="H1553">
+        <v>527639.41</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1554" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1554" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1554">
+        <v>0</v>
+      </c>
+      <c r="E1554">
+        <v>0</v>
+      </c>
+      <c r="F1554">
+        <v>0</v>
+      </c>
+      <c r="G1554">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1554">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1555" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1555" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1555">
+        <v>35337.9</v>
+      </c>
+      <c r="E1555">
+        <v>7913.29</v>
+      </c>
+      <c r="F1555">
+        <v>27424.61</v>
+      </c>
+      <c r="G1555">
+        <v>887465.72</v>
+      </c>
+      <c r="H1555">
+        <v>914890.33</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1556" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1556" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1556">
+        <v>0</v>
+      </c>
+      <c r="E1556">
+        <v>0</v>
+      </c>
+      <c r="F1556">
+        <v>0</v>
+      </c>
+      <c r="G1556">
+        <v>11269.09</v>
+      </c>
+      <c r="H1556">
+        <v>11269.09</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1557" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1557" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1557">
+        <v>0</v>
+      </c>
+      <c r="E1557">
+        <v>0</v>
+      </c>
+      <c r="F1557">
+        <v>0</v>
+      </c>
+      <c r="G1557">
+        <v>44574800.289999999</v>
+      </c>
+      <c r="H1557">
+        <v>44574800.289999999</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1558" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1558" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1558">
+        <v>0</v>
+      </c>
+      <c r="E1558">
+        <v>0</v>
+      </c>
+      <c r="F1558">
+        <v>0</v>
+      </c>
+      <c r="G1558">
+        <v>367835.82</v>
+      </c>
+      <c r="H1558">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1559" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1559" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1559">
+        <v>0</v>
+      </c>
+      <c r="E1559">
+        <v>0</v>
+      </c>
+      <c r="F1559">
+        <v>0</v>
+      </c>
+      <c r="G1559">
+        <v>1150010.02</v>
+      </c>
+      <c r="H1559">
+        <v>1150010.02</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1560" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1560" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1560">
+        <v>10018.030000000001</v>
+      </c>
+      <c r="E1560">
+        <v>169293.16</v>
+      </c>
+      <c r="F1560">
+        <v>-159275.13</v>
+      </c>
+      <c r="G1560">
+        <v>56548.98</v>
+      </c>
+      <c r="H1560">
+        <v>-102726.15</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1561" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1561" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1561">
+        <v>0</v>
+      </c>
+      <c r="E1561">
+        <v>0</v>
+      </c>
+      <c r="F1561">
+        <v>0</v>
+      </c>
+      <c r="G1561">
+        <v>3972954.24</v>
+      </c>
+      <c r="H1561">
+        <v>3972954.24</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1562" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1562" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1562">
+        <v>0</v>
+      </c>
+      <c r="E1562">
+        <v>0</v>
+      </c>
+      <c r="F1562">
+        <v>0</v>
+      </c>
+      <c r="G1562">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1562">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1563" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1563" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1563">
+        <v>97773.95</v>
+      </c>
+      <c r="E1563">
+        <v>3234203.07</v>
+      </c>
+      <c r="F1563">
+        <v>-3136429.1199999996</v>
+      </c>
+      <c r="G1563">
+        <v>3136774.35</v>
+      </c>
+      <c r="H1563">
+        <v>345.23000000044703</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1564" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1564" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1564">
+        <v>760810.28</v>
+      </c>
+      <c r="E1564">
+        <v>0</v>
+      </c>
+      <c r="F1564">
+        <v>760810.28</v>
+      </c>
+      <c r="G1564">
+        <v>0</v>
+      </c>
+      <c r="H1564">
+        <v>760810.28</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1565" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1565" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1565">
+        <v>0</v>
+      </c>
+      <c r="E1565">
+        <v>0</v>
+      </c>
+      <c r="F1565">
+        <v>0</v>
+      </c>
+      <c r="G1565">
+        <v>23102617.789999999</v>
+      </c>
+      <c r="H1565">
+        <v>23102617.789999999</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1566" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1566" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1566">
+        <v>0</v>
+      </c>
+      <c r="E1566">
+        <v>0</v>
+      </c>
+      <c r="F1566">
+        <v>0</v>
+      </c>
+      <c r="G1566">
+        <v>1400389.89</v>
+      </c>
+      <c r="H1566">
+        <v>1400389.89</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1567" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1567" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1567">
+        <v>0</v>
+      </c>
+      <c r="E1567">
+        <v>0</v>
+      </c>
+      <c r="F1567">
+        <v>0</v>
+      </c>
+      <c r="G1567">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1567">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1568" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1568" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1568">
+        <v>754901.77</v>
+      </c>
+      <c r="E1568">
+        <v>305865.78999999998</v>
+      </c>
+      <c r="F1568">
+        <v>449035.98000000004</v>
+      </c>
+      <c r="G1568">
+        <v>539126.56999999995</v>
+      </c>
+      <c r="H1568">
+        <v>988162.55</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1569" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1569" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1569">
+        <v>0</v>
+      </c>
+      <c r="E1569">
+        <v>5201088.9400000004</v>
+      </c>
+      <c r="F1569">
+        <v>-5201088.9400000004</v>
+      </c>
+      <c r="G1569">
+        <v>3014141.8</v>
+      </c>
+      <c r="H1569">
+        <v>-2186947.1400000006</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1570" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1570" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1570">
+        <v>0</v>
+      </c>
+      <c r="E1570">
+        <v>0</v>
+      </c>
+      <c r="F1570">
+        <v>0</v>
+      </c>
+      <c r="G1570">
+        <v>42830321.890000001</v>
+      </c>
+      <c r="H1570">
+        <v>42830321.890000001</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1571" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1571" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1571">
+        <v>0</v>
+      </c>
+      <c r="E1571">
+        <v>0</v>
+      </c>
+      <c r="F1571">
+        <v>0</v>
+      </c>
+      <c r="G1571">
+        <v>367835.82</v>
+      </c>
+      <c r="H1571">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1572" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1572" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1572">
+        <v>0</v>
+      </c>
+      <c r="E1572">
+        <v>0</v>
+      </c>
+      <c r="F1572">
+        <v>0</v>
+      </c>
+      <c r="G1572">
+        <v>1151316.33</v>
+      </c>
+      <c r="H1572">
+        <v>1151316.33</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1573" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1573" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1573">
+        <v>31445.27</v>
+      </c>
+      <c r="E1573">
+        <v>273076.94</v>
+      </c>
+      <c r="F1573">
+        <v>-241631.67</v>
+      </c>
+      <c r="G1573">
+        <v>279005.25</v>
+      </c>
+      <c r="H1573">
+        <v>37373.579999999987</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1574" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1574" s="1">
+        <v>46024</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1574">
+        <v>0</v>
+      </c>
+      <c r="E1574">
+        <v>0</v>
+      </c>
+      <c r="F1574">
+        <v>0</v>
+      </c>
+      <c r="G1574">
+        <v>3447140.24</v>
+      </c>
+      <c r="H1574">
+        <v>3447140.24</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1575" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1575" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1575">
+        <v>0</v>
+      </c>
+      <c r="E1575">
+        <v>0</v>
+      </c>
+      <c r="F1575">
+        <v>0</v>
+      </c>
+      <c r="G1575">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1575">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1576" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1576" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1576">
+        <v>11214.75</v>
+      </c>
+      <c r="E1576">
+        <v>3939502.65</v>
+      </c>
+      <c r="F1576">
+        <v>-3928287.9</v>
+      </c>
+      <c r="G1576">
+        <v>128299.39</v>
+      </c>
+      <c r="H1576">
+        <v>-3799988.51</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1577" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1577" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1577">
+        <v>1571351.14</v>
+      </c>
+      <c r="E1577">
+        <v>0</v>
+      </c>
+      <c r="F1577">
+        <v>1571351.14</v>
+      </c>
+      <c r="G1577">
+        <v>0</v>
+      </c>
+      <c r="H1577">
+        <v>1571351.14</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1578" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1578" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1578">
+        <v>0</v>
+      </c>
+      <c r="E1578">
+        <v>0</v>
+      </c>
+      <c r="F1578">
+        <v>0</v>
+      </c>
+      <c r="G1578">
+        <v>25594781.489999998</v>
+      </c>
+      <c r="H1578">
+        <v>25594781.489999998</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1579" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1579" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1579">
+        <v>0</v>
+      </c>
+      <c r="E1579">
+        <v>0</v>
+      </c>
+      <c r="F1579">
+        <v>0</v>
+      </c>
+      <c r="G1579">
+        <v>15297.95</v>
+      </c>
+      <c r="H1579">
+        <v>15297.95</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1580" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1580" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1580">
+        <v>0</v>
+      </c>
+      <c r="E1580">
+        <v>0</v>
+      </c>
+      <c r="F1580">
+        <v>0</v>
+      </c>
+      <c r="G1580">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1580">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1581" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1581" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1581">
+        <v>127835.03</v>
+      </c>
+      <c r="E1581">
+        <v>4034529.78</v>
+      </c>
+      <c r="F1581">
+        <v>-3906694.75</v>
+      </c>
+      <c r="G1581">
+        <v>381918.27</v>
+      </c>
+      <c r="H1581">
+        <v>-3524776.48</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1582" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1582" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1582">
+        <v>0</v>
+      </c>
+      <c r="E1582">
+        <v>13735.72</v>
+      </c>
+      <c r="F1582">
+        <v>-13735.72</v>
+      </c>
+      <c r="G1582">
+        <v>33052.86</v>
+      </c>
+      <c r="H1582">
+        <v>19317.14</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1583" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1583" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1583">
+        <v>0</v>
+      </c>
+      <c r="E1583">
+        <v>0</v>
+      </c>
+      <c r="F1583">
+        <v>0</v>
+      </c>
+      <c r="G1583">
+        <v>42856974.719999999</v>
+      </c>
+      <c r="H1583">
+        <v>42856974.719999999</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1584" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1584" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1584">
+        <v>0</v>
+      </c>
+      <c r="E1584">
+        <v>0</v>
+      </c>
+      <c r="F1584">
+        <v>0</v>
+      </c>
+      <c r="G1584">
+        <v>367835.82</v>
+      </c>
+      <c r="H1584">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1585" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1585" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1585">
+        <v>0</v>
+      </c>
+      <c r="E1585">
+        <v>0</v>
+      </c>
+      <c r="F1585">
+        <v>0</v>
+      </c>
+      <c r="G1585">
+        <v>1151316.33</v>
+      </c>
+      <c r="H1585">
+        <v>1151316.33</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1586" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1586" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1586">
+        <v>4438.6499999999996</v>
+      </c>
+      <c r="E1586">
+        <v>165120.20000000001</v>
+      </c>
+      <c r="F1586">
+        <v>-160681.55000000002</v>
+      </c>
+      <c r="G1586">
+        <v>40014.22</v>
+      </c>
+      <c r="H1586">
+        <v>-120667.33000000002</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1587" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1587" s="1">
+        <v>46027</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1587">
+        <v>0</v>
+      </c>
+      <c r="E1587">
+        <v>0</v>
+      </c>
+      <c r="F1587">
+        <v>0</v>
+      </c>
+      <c r="G1587">
+        <v>3499194.42</v>
+      </c>
+      <c r="H1587">
+        <v>3499194.42</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1588" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1588" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1588">
+        <v>0</v>
+      </c>
+      <c r="E1588">
+        <v>0</v>
+      </c>
+      <c r="F1588">
+        <v>0</v>
+      </c>
+      <c r="G1588">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1588">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1589" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1589" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1589">
+        <v>69352.83</v>
+      </c>
+      <c r="E1589">
+        <v>41984.24</v>
+      </c>
+      <c r="F1589">
+        <v>27368.590000000004</v>
+      </c>
+      <c r="G1589">
+        <v>0</v>
+      </c>
+      <c r="H1589">
+        <v>27368.590000000004</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1590" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1590" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1590">
+        <v>51702.48</v>
+      </c>
+      <c r="E1590">
+        <v>0</v>
+      </c>
+      <c r="F1590">
+        <v>51702.48</v>
+      </c>
+      <c r="G1590">
+        <v>0</v>
+      </c>
+      <c r="H1590">
+        <v>51702.48</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1591" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1591" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1591">
+        <v>0</v>
+      </c>
+      <c r="E1591">
+        <v>0</v>
+      </c>
+      <c r="F1591">
+        <v>0</v>
+      </c>
+      <c r="G1591">
+        <v>23407432.920000002</v>
+      </c>
+      <c r="H1591">
+        <v>23407432.920000002</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1592" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1592" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1592">
+        <v>0</v>
+      </c>
+      <c r="E1592">
+        <v>0</v>
+      </c>
+      <c r="F1592">
+        <v>0</v>
+      </c>
+      <c r="G1592">
+        <v>318536.89</v>
+      </c>
+      <c r="H1592">
+        <v>318536.89</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1593" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1593" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1593">
+        <v>0</v>
+      </c>
+      <c r="E1593">
+        <v>0</v>
+      </c>
+      <c r="F1593">
+        <v>0</v>
+      </c>
+      <c r="G1593">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1593">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1594" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1594" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1594">
+        <v>1430077.62</v>
+      </c>
+      <c r="E1594">
+        <v>273857.5</v>
+      </c>
+      <c r="F1594">
+        <v>1156220.1200000001</v>
+      </c>
+      <c r="G1594">
+        <v>0</v>
+      </c>
+      <c r="H1594">
+        <v>1156220.1200000001</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1595" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1595" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1595">
+        <v>0</v>
+      </c>
+      <c r="E1595">
+        <v>0</v>
+      </c>
+      <c r="F1595">
+        <v>0</v>
+      </c>
+      <c r="G1595">
+        <v>19317.14</v>
+      </c>
+      <c r="H1595">
+        <v>19317.14</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1596" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1596" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1596">
+        <v>0</v>
+      </c>
+      <c r="E1596">
+        <v>0</v>
+      </c>
+      <c r="F1596">
+        <v>0</v>
+      </c>
+      <c r="G1596">
+        <v>42879543.469999999</v>
+      </c>
+      <c r="H1596">
+        <v>42879543.469999999</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1597" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1597" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1597">
+        <v>0</v>
+      </c>
+      <c r="E1597">
+        <v>0</v>
+      </c>
+      <c r="F1597">
+        <v>0</v>
+      </c>
+      <c r="G1597">
+        <v>367835.82</v>
+      </c>
+      <c r="H1597">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1598" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1598" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1598">
+        <v>0</v>
+      </c>
+      <c r="E1598">
+        <v>0</v>
+      </c>
+      <c r="F1598">
+        <v>0</v>
+      </c>
+      <c r="G1598">
+        <v>1151977.98</v>
+      </c>
+      <c r="H1598">
+        <v>1151977.98</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1599" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1599" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1599">
+        <v>7653.55</v>
+      </c>
+      <c r="E1599">
+        <v>1300</v>
+      </c>
+      <c r="F1599">
+        <v>6353.55</v>
+      </c>
+      <c r="G1599">
+        <v>0</v>
+      </c>
+      <c r="H1599">
+        <v>6353.55</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1600" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1600" s="1">
+        <v>46028</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1600">
+        <v>0</v>
+      </c>
+      <c r="E1600">
+        <v>0</v>
+      </c>
+      <c r="F1600">
+        <v>0</v>
+      </c>
+      <c r="G1600">
+        <v>3466804.61</v>
+      </c>
+      <c r="H1600">
+        <v>3466804.61</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1601" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1601" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1601">
+        <v>0</v>
+      </c>
+      <c r="E1601">
+        <v>0</v>
+      </c>
+      <c r="F1601">
+        <v>0</v>
+      </c>
+      <c r="G1601">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1601">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1602" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1602" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1602">
+        <v>10003.56</v>
+      </c>
+      <c r="E1602">
+        <v>0</v>
+      </c>
+      <c r="F1602">
+        <v>10003.56</v>
+      </c>
+      <c r="G1602">
+        <v>63431.97</v>
+      </c>
+      <c r="H1602">
+        <v>73435.53</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1603" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1603" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1603">
+        <v>157823.94</v>
+      </c>
+      <c r="E1603">
+        <v>0</v>
+      </c>
+      <c r="F1603">
+        <v>157823.94</v>
+      </c>
+      <c r="G1603">
+        <v>0</v>
+      </c>
+      <c r="H1603">
+        <v>157823.94</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1604" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1604" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1604">
+        <v>0</v>
+      </c>
+      <c r="E1604">
+        <v>0</v>
+      </c>
+      <c r="F1604">
+        <v>0</v>
+      </c>
+      <c r="G1604">
+        <v>24200922.920000002</v>
+      </c>
+      <c r="H1604">
+        <v>24200922.920000002</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1605" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1605" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1605">
+        <v>0</v>
+      </c>
+      <c r="E1605">
+        <v>0</v>
+      </c>
+      <c r="F1605">
+        <v>0</v>
+      </c>
+      <c r="G1605">
+        <v>172867.86</v>
+      </c>
+      <c r="H1605">
+        <v>172867.86</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1606" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1606" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1606">
+        <v>0</v>
+      </c>
+      <c r="E1606">
+        <v>0</v>
+      </c>
+      <c r="F1606">
+        <v>0</v>
+      </c>
+      <c r="G1606">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1606">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1607" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1607" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1607">
+        <v>84311.24</v>
+      </c>
+      <c r="E1607">
+        <v>205442.13</v>
+      </c>
+      <c r="F1607">
+        <v>-121130.89</v>
+      </c>
+      <c r="G1607">
+        <v>472463.09</v>
+      </c>
+      <c r="H1607">
+        <v>351332.2</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1608" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1608" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1608">
+        <v>0</v>
+      </c>
+      <c r="E1608">
+        <v>1142.3900000000001</v>
+      </c>
+      <c r="F1608">
+        <v>-1142.3900000000001</v>
+      </c>
+      <c r="G1608">
+        <v>19317.14</v>
+      </c>
+      <c r="H1608">
+        <v>18174.75</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1609" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1609" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1609">
+        <v>0</v>
+      </c>
+      <c r="E1609">
+        <v>0</v>
+      </c>
+      <c r="F1609">
+        <v>0</v>
+      </c>
+      <c r="G1609">
+        <v>50417256.979999997</v>
+      </c>
+      <c r="H1609">
+        <v>50417256.979999997</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1610" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1610" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1610">
+        <v>0</v>
+      </c>
+      <c r="E1610">
+        <v>0</v>
+      </c>
+      <c r="F1610">
+        <v>0</v>
+      </c>
+      <c r="G1610">
+        <v>367835.82</v>
+      </c>
+      <c r="H1610">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1611" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1611" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1611">
+        <v>0</v>
+      </c>
+      <c r="E1611">
+        <v>0</v>
+      </c>
+      <c r="F1611">
+        <v>0</v>
+      </c>
+      <c r="G1611">
+        <v>1153361.8700000001</v>
+      </c>
+      <c r="H1611">
+        <v>1153361.8700000001</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1612" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1612" s="1">
+        <v>46029</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1612">
+        <v>4100.45</v>
+      </c>
+      <c r="E1612">
+        <v>0</v>
+      </c>
+      <c r="F1612">
+        <v>4100.45</v>
+      </c>
+      <c r="G1612">
+        <v>20000</v>
+      </c>
+      <c r="H1612">
+        <v>24100.45</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1613" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1613" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1613">
+        <v>0</v>
+      </c>
+      <c r="E1613">
+        <v>0</v>
+      </c>
+      <c r="F1613">
+        <v>0</v>
+      </c>
+      <c r="G1613">
+        <v>3499663.17</v>
+      </c>
+      <c r="H1613">
+        <v>3499663.17</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1614" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1614" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1614">
+        <v>0</v>
+      </c>
+      <c r="E1614">
+        <v>0</v>
+      </c>
+      <c r="F1614">
+        <v>0</v>
+      </c>
+      <c r="G1614">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1614">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1615" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1615" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1615">
+        <v>10000.61</v>
+      </c>
+      <c r="E1615">
+        <v>370.16</v>
+      </c>
+      <c r="F1615">
+        <v>9630.4500000000007</v>
+      </c>
+      <c r="G1615">
+        <v>117240.49</v>
+      </c>
+      <c r="H1615">
+        <v>126870.94</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1616" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1616" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1616">
+        <v>48108.12</v>
+      </c>
+      <c r="E1616">
+        <v>0</v>
+      </c>
+      <c r="F1616">
+        <v>48108.12</v>
+      </c>
+      <c r="G1616">
+        <v>0</v>
+      </c>
+      <c r="H1616">
+        <v>48108.12</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1617" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1617" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1617">
+        <v>0</v>
+      </c>
+      <c r="E1617">
+        <v>0</v>
+      </c>
+      <c r="F1617">
+        <v>0</v>
+      </c>
+      <c r="G1617">
+        <v>24770074.359999999</v>
+      </c>
+      <c r="H1617">
+        <v>24770074.359999999</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1618" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1618" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1618">
+        <v>0</v>
+      </c>
+      <c r="E1618">
+        <v>0</v>
+      </c>
+      <c r="F1618">
+        <v>0</v>
+      </c>
+      <c r="G1618">
+        <v>727116.26</v>
+      </c>
+      <c r="H1618">
+        <v>727116.26</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1619" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1619" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1619">
+        <v>0</v>
+      </c>
+      <c r="E1619">
+        <v>0</v>
+      </c>
+      <c r="F1619">
+        <v>0</v>
+      </c>
+      <c r="G1619">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1619">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1620" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1620" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1620">
+        <v>741353.66</v>
+      </c>
+      <c r="E1620">
+        <v>108932.48</v>
+      </c>
+      <c r="F1620">
+        <v>632421.18000000005</v>
+      </c>
+      <c r="G1620">
+        <v>612634.56999999995</v>
+      </c>
+      <c r="H1620">
+        <v>1245055.75</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1621" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1621" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1621">
+        <v>0</v>
+      </c>
+      <c r="E1621">
+        <v>0</v>
+      </c>
+      <c r="F1621">
+        <v>0</v>
+      </c>
+      <c r="G1621">
+        <v>18174.75</v>
+      </c>
+      <c r="H1621">
+        <v>18174.75</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1622" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1622" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1622">
+        <v>0</v>
+      </c>
+      <c r="E1622">
+        <v>0</v>
+      </c>
+      <c r="F1622">
+        <v>0</v>
+      </c>
+      <c r="G1622">
+        <v>50445612.469999999</v>
+      </c>
+      <c r="H1622">
+        <v>50445612.469999999</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1623" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1623" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1623">
+        <v>0</v>
+      </c>
+      <c r="E1623">
+        <v>0</v>
+      </c>
+      <c r="F1623">
+        <v>0</v>
+      </c>
+      <c r="G1623">
+        <v>367835.82</v>
+      </c>
+      <c r="H1623">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1624" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1624" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1624">
+        <v>0</v>
+      </c>
+      <c r="E1624">
+        <v>0</v>
+      </c>
+      <c r="F1624">
+        <v>0</v>
+      </c>
+      <c r="G1624">
+        <v>1153880.31</v>
+      </c>
+      <c r="H1624">
+        <v>1153880.31</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1625" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1625" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1625">
+        <v>36672.65</v>
+      </c>
+      <c r="E1625">
+        <v>0</v>
+      </c>
+      <c r="F1625">
+        <v>36672.65</v>
+      </c>
+      <c r="G1625">
+        <v>54000.82</v>
+      </c>
+      <c r="H1625">
+        <v>90673.47</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1626" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1626" s="1">
+        <v>46030</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1626">
+        <v>0</v>
+      </c>
+      <c r="E1626">
+        <v>0</v>
+      </c>
+      <c r="F1626">
+        <v>0</v>
+      </c>
+      <c r="G1626">
+        <v>3501175.91</v>
+      </c>
+      <c r="H1626">
+        <v>3501175.91</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1627" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1627" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1627">
+        <v>0</v>
+      </c>
+      <c r="E1627">
+        <v>0</v>
+      </c>
+      <c r="F1627">
+        <v>0</v>
+      </c>
+      <c r="G1627">
+        <v>2163526.4500000002</v>
+      </c>
+      <c r="H1627">
+        <v>2163526.4500000002</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1628" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1628" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1628">
+        <v>9635.3700000000008</v>
+      </c>
+      <c r="E1628">
+        <v>2321149.88</v>
+      </c>
+      <c r="F1628">
+        <v>-2311514.5099999998</v>
+      </c>
+      <c r="G1628">
+        <v>164990.93</v>
+      </c>
+      <c r="H1628">
+        <v>-2146523.5799999996</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1629" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1629" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1629">
+        <v>221500.36</v>
+      </c>
+      <c r="E1629">
+        <v>0</v>
+      </c>
+      <c r="F1629">
+        <v>221500.36</v>
+      </c>
+      <c r="G1629">
+        <v>0</v>
+      </c>
+      <c r="H1629">
+        <v>221500.36</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1630" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1630" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1630">
+        <v>0</v>
+      </c>
+      <c r="E1630">
+        <v>0</v>
+      </c>
+      <c r="F1630">
+        <v>0</v>
+      </c>
+      <c r="G1630">
+        <v>25720082.129999999</v>
+      </c>
+      <c r="H1630">
+        <v>25720082.129999999</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1631" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1631" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1631">
+        <v>0</v>
+      </c>
+      <c r="E1631">
+        <v>0</v>
+      </c>
+      <c r="F1631">
+        <v>0</v>
+      </c>
+      <c r="G1631">
+        <v>25197.77</v>
+      </c>
+      <c r="H1631">
+        <v>25197.77</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1632" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1632" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1632">
+        <v>0</v>
+      </c>
+      <c r="E1632">
+        <v>0</v>
+      </c>
+      <c r="F1632">
+        <v>0</v>
+      </c>
+      <c r="G1632">
+        <v>4483617.68</v>
+      </c>
+      <c r="H1632">
+        <v>4483617.68</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1633" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1633" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1633">
+        <v>69975.03</v>
+      </c>
+      <c r="E1633">
+        <v>4159816.89</v>
+      </c>
+      <c r="F1633">
+        <v>-4089841.8600000003</v>
+      </c>
+      <c r="G1633">
+        <v>1155072.77</v>
+      </c>
+      <c r="H1633">
+        <v>-2934769.0900000003</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1634" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1634" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1634">
+        <v>0</v>
+      </c>
+      <c r="E1634">
+        <v>27689.91</v>
+      </c>
+      <c r="F1634">
+        <v>-27689.91</v>
+      </c>
+      <c r="G1634">
+        <v>16833.650000000001</v>
+      </c>
+      <c r="H1634">
+        <v>-10856.259999999998</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1635" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1635" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1635">
+        <v>0</v>
+      </c>
+      <c r="E1635">
+        <v>0</v>
+      </c>
+      <c r="F1635">
+        <v>0</v>
+      </c>
+      <c r="G1635">
+        <v>51474942.780000001</v>
+      </c>
+      <c r="H1635">
+        <v>51474942.780000001</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1636" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1636" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1636">
+        <v>0</v>
+      </c>
+      <c r="E1636">
+        <v>0</v>
+      </c>
+      <c r="F1636">
+        <v>0</v>
+      </c>
+      <c r="G1636">
+        <v>367835.82</v>
+      </c>
+      <c r="H1636">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1637" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1637" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1637">
+        <v>0</v>
+      </c>
+      <c r="E1637">
+        <v>0</v>
+      </c>
+      <c r="F1637">
+        <v>0</v>
+      </c>
+      <c r="G1637">
+        <v>1153880.31</v>
+      </c>
+      <c r="H1637">
+        <v>1153880.31</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1638" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1638" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1638">
+        <v>5008.66</v>
+      </c>
+      <c r="E1638">
+        <v>84556.19</v>
+      </c>
+      <c r="F1638">
+        <v>-79547.53</v>
+      </c>
+      <c r="G1638">
+        <v>96076.49</v>
+      </c>
+      <c r="H1638">
+        <v>16528.960000000006</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1639" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1639" s="1">
+        <v>46031</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1639">
+        <v>0</v>
+      </c>
+      <c r="E1639">
+        <v>0</v>
+      </c>
+      <c r="F1639">
+        <v>0</v>
+      </c>
+      <c r="G1639">
+        <v>3532295.24</v>
+      </c>
+      <c r="H1639">
+        <v>3532295.24</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1640" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1640" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1640">
+        <v>0</v>
+      </c>
+      <c r="E1640">
+        <v>0</v>
+      </c>
+      <c r="F1640">
+        <v>0</v>
+      </c>
+      <c r="G1640">
+        <v>986064.78</v>
+      </c>
+      <c r="H1640">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1641" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1641" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1641">
+        <v>227919.09</v>
+      </c>
+      <c r="E1641">
+        <v>981903.85</v>
+      </c>
+      <c r="F1641">
+        <v>-753984.76</v>
+      </c>
+      <c r="G1641">
+        <v>0</v>
+      </c>
+      <c r="H1641">
+        <v>-753984.76</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1642" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1642" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1642">
+        <v>59562.37</v>
+      </c>
+      <c r="E1642">
+        <v>0</v>
+      </c>
+      <c r="F1642">
+        <v>59562.37</v>
+      </c>
+      <c r="G1642">
+        <v>0</v>
+      </c>
+      <c r="H1642">
+        <v>59562.37</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1643" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1643" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1643">
+        <v>0</v>
+      </c>
+      <c r="E1643">
+        <v>0</v>
+      </c>
+      <c r="F1643">
+        <v>0</v>
+      </c>
+      <c r="G1643">
+        <v>24440761.289999999</v>
+      </c>
+      <c r="H1643">
+        <v>24440761.289999999</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1644" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1644" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1644">
+        <v>0</v>
+      </c>
+      <c r="E1644">
+        <v>0</v>
+      </c>
+      <c r="F1644">
+        <v>0</v>
+      </c>
+      <c r="G1644">
+        <v>1128778.51</v>
+      </c>
+      <c r="H1644">
+        <v>1128778.51</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1645" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1645" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1645">
+        <v>0</v>
+      </c>
+      <c r="E1645">
+        <v>0</v>
+      </c>
+      <c r="F1645">
+        <v>0</v>
+      </c>
+      <c r="G1645">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1645">
+        <v>2749964.13</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1646" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1646" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1646">
+        <v>322281.7</v>
+      </c>
+      <c r="E1646">
+        <v>37680.33</v>
+      </c>
+      <c r="F1646">
+        <v>284601.37</v>
+      </c>
+      <c r="G1646">
+        <v>0</v>
+      </c>
+      <c r="H1646">
+        <v>284601.37</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1647" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1647" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1647">
+        <v>0</v>
+      </c>
+      <c r="E1647">
+        <v>2019.59</v>
+      </c>
+      <c r="F1647">
+        <v>-2019.59</v>
+      </c>
+      <c r="G1647">
+        <v>89143.74</v>
+      </c>
+      <c r="H1647">
+        <v>87124.150000000009</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1648" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1648" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1648">
+        <v>0</v>
+      </c>
+      <c r="E1648">
+        <v>0</v>
+      </c>
+      <c r="F1648">
+        <v>0</v>
+      </c>
+      <c r="G1648">
+        <v>49204302.350000001</v>
+      </c>
+      <c r="H1648">
+        <v>49204302.350000001</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1649" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1649" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1649">
+        <v>0</v>
+      </c>
+      <c r="E1649">
+        <v>0</v>
+      </c>
+      <c r="F1649">
+        <v>0</v>
+      </c>
+      <c r="G1649">
+        <v>367835.82</v>
+      </c>
+      <c r="H1649">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1650" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1650" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1650">
+        <v>0</v>
+      </c>
+      <c r="E1650">
+        <v>0</v>
+      </c>
+      <c r="F1650">
+        <v>0</v>
+      </c>
+      <c r="G1650">
+        <v>1154959.6200000001</v>
+      </c>
+      <c r="H1650">
+        <v>1154959.6200000001</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1651" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1651" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1651">
+        <v>5006.9399999999996</v>
+      </c>
+      <c r="E1651">
+        <v>175026.09</v>
+      </c>
+      <c r="F1651">
+        <v>-170019.15</v>
+      </c>
+      <c r="G1651">
+        <v>57952</v>
+      </c>
+      <c r="H1651">
+        <v>-112067.15</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1652" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1652" s="1">
+        <v>46034</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1652">
+        <v>0</v>
+      </c>
+      <c r="E1652">
+        <v>0</v>
+      </c>
+      <c r="F1652">
+        <v>0</v>
+      </c>
+      <c r="G1652">
+        <v>3535396.2</v>
+      </c>
+      <c r="H1652">
+        <v>3535396.2</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1653" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1653" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1653">
+        <v>0</v>
+      </c>
+      <c r="E1653">
+        <v>0</v>
+      </c>
+      <c r="F1653">
+        <v>0</v>
+      </c>
+      <c r="G1653">
+        <v>986064.78</v>
+      </c>
+      <c r="H1653">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1654" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1654" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1654">
+        <v>9997.5</v>
+      </c>
+      <c r="E1654">
+        <v>55269.5</v>
+      </c>
+      <c r="F1654">
+        <v>-45272</v>
+      </c>
+      <c r="G1654">
+        <v>166685.56</v>
+      </c>
+      <c r="H1654">
+        <v>121413.56</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1655" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1655" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1655">
+        <v>326956.53000000003</v>
+      </c>
+      <c r="E1655">
+        <v>0</v>
+      </c>
+      <c r="F1655">
+        <v>326956.53000000003</v>
+      </c>
+      <c r="G1655">
+        <v>0</v>
+      </c>
+      <c r="H1655">
+        <v>326956.53000000003</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1656" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1656" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1656">
+        <v>0</v>
+      </c>
+      <c r="E1656">
+        <v>0</v>
+      </c>
+      <c r="F1656">
+        <v>0</v>
+      </c>
+      <c r="G1656">
+        <v>25151109.100000001</v>
+      </c>
+      <c r="H1656">
+        <v>25151109.100000001</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1657" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1657" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1657">
+        <v>0</v>
+      </c>
+      <c r="E1657">
+        <v>0</v>
+      </c>
+      <c r="F1657">
+        <v>0</v>
+      </c>
+      <c r="G1657">
+        <v>20937.099999999999</v>
+      </c>
+      <c r="H1657">
+        <v>20937.099999999999</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1658" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1658" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1658">
+        <v>0</v>
+      </c>
+      <c r="E1658">
+        <v>0</v>
+      </c>
+      <c r="F1658">
+        <v>0</v>
+      </c>
+      <c r="G1658">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1658">
+        <v>2749964.13</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1659" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1659" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1659">
+        <v>54573</v>
+      </c>
+      <c r="E1659">
+        <v>6631.74</v>
+      </c>
+      <c r="F1659">
+        <v>47941.26</v>
+      </c>
+      <c r="G1659">
+        <v>273967.64</v>
+      </c>
+      <c r="H1659">
+        <v>321908.90000000002</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1660" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1660" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1660">
+        <v>0</v>
+      </c>
+      <c r="E1660">
+        <v>0</v>
+      </c>
+      <c r="F1660">
+        <v>0</v>
+      </c>
+      <c r="G1660">
+        <v>87124.15</v>
+      </c>
+      <c r="H1660">
+        <v>87124.15</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1661" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1661" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1661">
+        <v>0</v>
+      </c>
+      <c r="E1661">
+        <v>0</v>
+      </c>
+      <c r="F1661">
+        <v>0</v>
+      </c>
+      <c r="G1661">
+        <v>50638761.039999999</v>
+      </c>
+      <c r="H1661">
+        <v>50638761.039999999</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1662" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1662" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1662">
+        <v>0</v>
+      </c>
+      <c r="E1662">
+        <v>0</v>
+      </c>
+      <c r="F1662">
+        <v>0</v>
+      </c>
+      <c r="G1662">
+        <v>367835.82</v>
+      </c>
+      <c r="H1662">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1663" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1663" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1663">
+        <v>0</v>
+      </c>
+      <c r="E1663">
+        <v>0</v>
+      </c>
+      <c r="F1663">
+        <v>0</v>
+      </c>
+      <c r="G1663">
+        <v>1155774.7</v>
+      </c>
+      <c r="H1663">
+        <v>1155774.7</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1664" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1664" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1664">
+        <v>4746.87</v>
+      </c>
+      <c r="E1664">
+        <v>0</v>
+      </c>
+      <c r="F1664">
+        <v>4746.87</v>
+      </c>
+      <c r="G1664">
+        <v>86984.33</v>
+      </c>
+      <c r="H1664">
+        <v>91731.199999999997</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1665" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1665" s="1">
+        <v>46035</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1665">
+        <v>0</v>
+      </c>
+      <c r="E1665">
+        <v>0</v>
+      </c>
+      <c r="F1665">
+        <v>0</v>
+      </c>
+      <c r="G1665">
+        <v>3487783.37</v>
+      </c>
+      <c r="H1665">
+        <v>3487783.37</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1666" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1666" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1666">
+        <v>0</v>
+      </c>
+      <c r="E1666">
+        <v>0</v>
+      </c>
+      <c r="F1666">
+        <v>0</v>
+      </c>
+      <c r="G1666">
+        <v>986064.78</v>
+      </c>
+      <c r="H1666">
+        <v>986064.78</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1667" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1667" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1667">
+        <v>88064.75</v>
+      </c>
+      <c r="E1667">
+        <v>38656.14</v>
+      </c>
+      <c r="F1667">
+        <v>49408.61</v>
+      </c>
+      <c r="G1667">
+        <v>166685.56</v>
+      </c>
+      <c r="H1667">
+        <v>216094.16999999998</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1668" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1668" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1668">
+        <v>165384.32999999999</v>
+      </c>
+      <c r="E1668">
+        <v>0</v>
+      </c>
+      <c r="F1668">
+        <v>165384.32999999999</v>
+      </c>
+      <c r="G1668">
+        <v>0</v>
+      </c>
+      <c r="H1668">
+        <v>165384.32999999999</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1669" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1669" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1669">
+        <v>0</v>
+      </c>
+      <c r="E1669">
+        <v>0</v>
+      </c>
+      <c r="F1669">
+        <v>0</v>
+      </c>
+      <c r="G1669">
+        <v>26019854.890000001</v>
+      </c>
+      <c r="H1669">
+        <v>26019854.890000001</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1670" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1670" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1670">
+        <v>0</v>
+      </c>
+      <c r="E1670">
+        <v>0</v>
+      </c>
+      <c r="F1670">
+        <v>0</v>
+      </c>
+      <c r="G1670">
+        <v>21772.61</v>
+      </c>
+      <c r="H1670">
+        <v>21772.61</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1671" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1671" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1671">
+        <v>0</v>
+      </c>
+      <c r="E1671">
+        <v>0</v>
+      </c>
+      <c r="F1671">
+        <v>0</v>
+      </c>
+      <c r="G1671">
+        <v>2749964.13</v>
+      </c>
+      <c r="H1671">
+        <v>2749964.13</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1672" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1672" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1672">
+        <v>819450.58</v>
+      </c>
+      <c r="E1672">
+        <v>0</v>
+      </c>
+      <c r="F1672">
+        <v>819450.58</v>
+      </c>
+      <c r="G1672">
+        <v>273967.64</v>
+      </c>
+      <c r="H1672">
+        <v>1093418.22</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1673" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1673" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1673">
+        <v>0</v>
+      </c>
+      <c r="E1673">
+        <v>27335.06</v>
+      </c>
+      <c r="F1673">
+        <v>-27335.06</v>
+      </c>
+      <c r="G1673">
+        <v>87124.15</v>
+      </c>
+      <c r="H1673">
+        <v>59789.09</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1674" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1674" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1674">
+        <v>0</v>
+      </c>
+      <c r="E1674">
+        <v>0</v>
+      </c>
+      <c r="F1674">
+        <v>0</v>
+      </c>
+      <c r="G1674">
+        <v>50668476.93</v>
+      </c>
+      <c r="H1674">
+        <v>50668476.93</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1675" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1675" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1675">
+        <v>0</v>
+      </c>
+      <c r="E1675">
+        <v>0</v>
+      </c>
+      <c r="F1675">
+        <v>0</v>
+      </c>
+      <c r="G1675">
+        <v>367835.82</v>
+      </c>
+      <c r="H1675">
+        <v>367835.82</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1676" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1676" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1676">
+        <v>0</v>
+      </c>
+      <c r="E1676">
+        <v>0</v>
+      </c>
+      <c r="F1676">
+        <v>0</v>
+      </c>
+      <c r="G1676">
+        <v>1156230.29</v>
+      </c>
+      <c r="H1676">
+        <v>1156230.29</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1677" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1677" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1677">
+        <v>10235.09</v>
+      </c>
+      <c r="E1677">
+        <v>0</v>
+      </c>
+      <c r="F1677">
+        <v>10235.09</v>
+      </c>
+      <c r="G1677">
+        <v>87017.78</v>
+      </c>
+      <c r="H1677">
+        <v>97252.87</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1678" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1678" s="1">
+        <v>46036</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1678">
+        <v>0</v>
+      </c>
+      <c r="E1678">
+        <v>0</v>
+      </c>
+      <c r="F1678">
+        <v>0</v>
+      </c>
+      <c r="G1678">
+        <v>3550197.16</v>
+      </c>
+      <c r="H1678">
+        <v>3550197.16</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1679" s="3"/>
+    </row>
+    <row r="1680" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1680" s="3"/>
+    </row>
+    <row r="1681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1681" s="3"/>
+    </row>
+    <row r="1682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1682" s="3"/>
+    </row>
+    <row r="1683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1683" s="3"/>
+    </row>
+    <row r="1684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1684" s="3"/>
+    </row>
+    <row r="1685" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1685" s="3"/>
+    </row>
+    <row r="1686" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1686" s="3"/>
+    </row>
+    <row r="1687" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1687" s="3"/>
+    </row>
+    <row r="1688" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1688" s="3"/>
+    </row>
+    <row r="1689" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1689" s="3"/>
+    </row>
+    <row r="1690" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1690" s="3"/>
+    </row>
+    <row r="1691" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1691" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
